--- a/DOCS/Test Cases/TC06- Manager Registration .xlsx
+++ b/DOCS/Test Cases/TC06- Manager Registration .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" tabRatio="380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" tabRatio="284" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="96">
   <si>
     <t>Intput Type</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Existing userame</t>
   </si>
   <si>
-    <t>Resgister with shor password</t>
-  </si>
-  <si>
     <t>O2:3 letters</t>
   </si>
   <si>
@@ -250,13 +247,70 @@
   </si>
   <si>
     <t>O2:Invalid date</t>
+  </si>
+  <si>
+    <t>TC06.04</t>
+  </si>
+  <si>
+    <t>TC06.05</t>
+  </si>
+  <si>
+    <t>TC06.06</t>
+  </si>
+  <si>
+    <t>TC06.07</t>
+  </si>
+  <si>
+    <t>TC06.08</t>
+  </si>
+  <si>
+    <t>TC06.09</t>
+  </si>
+  <si>
+    <t>Edit profile:remove full name</t>
+  </si>
+  <si>
+    <t>TC06.10</t>
+  </si>
+  <si>
+    <t>Resgister with short password</t>
+  </si>
+  <si>
+    <t>Profile approval: Approve a non approved manager</t>
+  </si>
+  <si>
+    <t>Profile approval: Cancel a approved manager</t>
+  </si>
+  <si>
+    <t>Successful approval</t>
+  </si>
+  <si>
+    <t>Successful disapproval</t>
+  </si>
+  <si>
+    <t>TC06.11</t>
+  </si>
+  <si>
+    <t>TC06.12</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -445,10 +492,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -463,13 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,22 +858,22 @@
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H2" s="9"/>
@@ -1172,59 +1216,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="38.25" customHeight="1">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
-      <c r="I1" s="9"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -1235,73 +1283,75 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30.75" thickBot="1">
+    <row r="3" spans="1:16" ht="45.75" thickBot="1">
       <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" thickTop="1">
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16" ht="45" customHeight="1" thickTop="1">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="10" t="s">
         <v>60</v>
       </c>
@@ -1309,7 +1359,7 @@
         <v>60</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>64</v>
@@ -1318,37 +1368,40 @@
         <v>64</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:16" ht="30">
       <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H5" s="10" t="s">
         <v>60</v>
       </c>
@@ -1356,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>64</v>
@@ -1365,37 +1418,40 @@
         <v>64</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="42" customHeight="1">
+    <row r="6" spans="1:16" ht="42" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H6" s="10" t="s">
         <v>60</v>
       </c>
@@ -1403,7 +1459,7 @@
         <v>60</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>64</v>
@@ -1412,34 +1468,40 @@
         <v>64</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:16" ht="30">
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="10" t="s">
         <v>60</v>
       </c>
@@ -1447,7 +1509,7 @@
         <v>60</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>64</v>
@@ -1456,31 +1518,40 @@
         <v>64</v>
       </c>
       <c r="M7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30">
-      <c r="B8" s="10" t="s">
+      <c r="O7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30">
+      <c r="A8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" s="10" t="s">
         <v>60</v>
       </c>
@@ -1488,7 +1559,7 @@
         <v>60</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>64</v>
@@ -1497,221 +1568,282 @@
         <v>64</v>
       </c>
       <c r="M8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30">
-      <c r="B9" s="10" t="s">
+      <c r="O8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="30">
+      <c r="A9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="P9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="30">
+      <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30">
-      <c r="B10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="H11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30">
+      <c r="A12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="30">
+      <c r="A13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="30">
-      <c r="B12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>60</v>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="30">
+      <c r="A14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30">
+      <c r="A15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
